--- a/file.xlsx
+++ b/file.xlsx
@@ -97,7 +97,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">simple_java/b.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">simple_java/b.py: (r # of file-dependencies: 1, # of module-dependencies: 0)
 ---
 simple_java/a.py: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -553,7 +553,7 @@
         <v>27</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/file.xlsx
+++ b/file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>repo</t>
   </si>
@@ -79,6 +79,24 @@
     <t>cpp_dependency_list</t>
   </si>
   <si>
+    <t>BatteryCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatteryCheck/app/src/androidTest/java/com/dell/batterycheck/ExampleInstrumentedTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BatteryCheck/app/src/test/java/com/dell/batterycheck/ExampleUnitTest.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BatteryCheck/app/src/main/java/com/dell/batterycheck/Utils.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BatteryCheck/app/src/main/java/com/dell/batterycheck/MainActivity.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BatteryCheck/app/src/main/java/com/dell/batterycheck/working.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+BatteryCheck/app/src/main/java/com/dell/batterycheck/LocationActivity.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
     <t>simple_java</t>
   </si>
   <si>
@@ -100,6 +118,141 @@
     <t xml:space="preserve">simple_java/b.py: (r # of file-dependencies: 1, # of module-dependencies: 0)
 ---
 simple_java/a.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t>java_f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java_f2/java 4/q19.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 4/q21.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 4/q23.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 4/q20.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 4/q24.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 4/q22.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q12.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q7.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q11.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q10.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q9.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java2/q8.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q4.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q6.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q1.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q5.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q2.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java1/q3.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q30.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q25.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q27.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q28.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q26.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 5/q29.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q14.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q18.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q13.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q16.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q17.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/java 3/q15.java: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java_f2/q81.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q74.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q69.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q80.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q89.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q_21.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q85.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q82.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q78.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q68.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q64.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q71.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q86.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q87.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q90.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q66.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q73.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q 23.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q75.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q67.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q70.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q83.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q62.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q72.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q79.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q65.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q_w1.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q76.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q88.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q61.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q84.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q77.py: (# of file-dependencies: 0, # of module-dependencies: 0)
+---
+java_f2/q63.py: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 </t>
   </si>
@@ -433,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -547,42 +700,157 @@
         <v>22</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="150" customHeight="1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>27</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>27</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>27</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="150" customHeight="1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
